--- a/public/cohort/fileExcel/xlsxUIT/OPEN/NE_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/NE_OPEN.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -953,6 +953,9 @@
     <t>NE/K/7, NE/K/8, NE/V/1, NE/V/2, NE/V/3</t>
   </si>
   <si>
+    <t>kies...</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
@@ -965,16 +968,16 @@
     <t>C,  E</t>
   </si>
   <si>
+    <t>lezen en woordenschat</t>
+  </si>
+  <si>
     <t>literatuurgeschiedenis</t>
   </si>
   <si>
     <t>SE presenteren en literatuur: duopresentatie over een literair werk (boek 2).</t>
   </si>
   <si>
-    <t>B, E</t>
-  </si>
-  <si>
-    <t>lezen en argumenteren</t>
+    <t>B,E</t>
   </si>
   <si>
     <t>debat en argumenteren</t>
@@ -990,6 +993,12 @@
   </si>
   <si>
     <t>Presenteren en literatuur: duopresentatie over een literair werk (boek 2).</t>
+  </si>
+  <si>
+    <t>B, E</t>
+  </si>
+  <si>
+    <t>lezen en argumenteren</t>
   </si>
   <si>
     <t>argumenteren en debat</t>
@@ -1056,19 +1065,28 @@
     <t>project rechtbank, schrijven betoog</t>
   </si>
   <si>
-    <t>tekstverklaring en argumenteren</t>
+    <t>tekstverklaring, woordenschat en argumenteren</t>
   </si>
   <si>
     <t>proza en poëzie</t>
   </si>
   <si>
-    <t>project</t>
+    <t>project, inclusief boek 1</t>
   </si>
   <si>
     <t>Betoog met uiteenzettende elementen op basis van een dossier Het volledige dossier moet op een nader te bepalen tijdstip persoonlijk overhandigd worden aan de docent. Levert een leerling van tevoren geen dossier in, of op de dag van het SE, dan is het maximaal te behalen cijfer een 4,0.</t>
   </si>
   <si>
     <t>C, D</t>
+  </si>
+  <si>
+    <t>Literatuur: mondeling literatuur o.b.v. leesdossier. Vier literaire werken na 1940 en twee uit de 19e eeuw.  Het volledige dossier moet op een nader te bepalen tijdstip persoonlijk overhandigd worden aan de docent. Levert een leerling van tevoren geen leesdossier in, of op de dag van het mondeling, dan is het maximaal te behalen cijfer een 4,0.</t>
+  </si>
+  <si>
+    <t>tekstverklaring en argumenteren</t>
+  </si>
+  <si>
+    <t>project</t>
   </si>
   <si>
     <t>Literatuur: mondeling literatuur o.b.v. leesdossier. Vier literaire werken na 1940 en een uit de 19e eeuw.  Het volledige dossier moet op een nader te bepalen tijdstip persoonlijk overhandigd worden aan de docent. Levert een leerling van tevoren geen leesdossier in, of op de dag van het mondeling, dan is het maximaal te behalen cijfer een 4,0.</t>
@@ -1080,13 +1098,16 @@
     <t>Beschouwing en reflectieverslag met behulp van een dossier.  Het volledige dossier moet op een nader te bepalen tijdstip persoonlijk overhandigd worden aan de docent. Levert een leerling van tevoren geen dossier in, of op de dag van het SE, dan is het maximaal te behalen cijfer een 4,0.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mondeling literatuur o.b.v. leesdossier: drie moderne werken vanaf 1940 en een historisch werk (1880 – 1940). Het volledige dossier moet op een nader te bepalen tijdstip persoonlijk overhandigd worden aan de docent. Levert een leerling van tevoren geen leesdossier in, of op de dag van het mondeling, dan is het maximaal te behalen cijfer een 4,0. </t>
+    <t xml:space="preserve">Mondeling literatuur o.b.v. leesdossier: drie moderne werken vanaf 1940 en een historisch werk (1880 – 1975). Het volledige dossier moet op een nader te bepalen tijdstip persoonlijk overhandigd worden aan de docent. Levert een leerling van tevoren geen leesdossier in, of op de dag van het mondeling, dan is het maximaal te behalen cijfer een 4,0. </t>
   </si>
   <si>
     <t>Debat</t>
   </si>
   <si>
     <t>Spellen en formuleren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mondeling literatuur o.b.v. leesdossier: drie moderne werken vanaf 1940 en een historisch werk (1880 – 1940). Het volledige dossier moet op een nader te bepalen tijdstip persoonlijk overhandigd worden aan de docent. Levert een leerling van tevoren geen leesdossier in, of op de dag van het mondeling, dan is het maximaal te behalen cijfer een 4,0. </t>
   </si>
 </sst>
 </file>
@@ -2138,7 +2159,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -2284,7 +2305,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2638,7 +2659,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602222222</v>
+        <v>44385.633275463</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3010,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -3027,7 +3048,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -3072,7 +3093,7 @@
       </c>
       <c r="AB18" s="7">
         <f>IF(AND(OR($O18=instellingen!$I$3,$O18=instellingen!$I$4),OR($M18=instellingen!$I$2,$M18=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="7">
         <f>IF(AND($O18=instellingen!$I$2,$M18=instellingen!$I$3),1,0)</f>
@@ -3088,7 +3109,7 @@
       </c>
       <c r="AF18" s="8">
         <f>SUM(R18:AE18)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1" ht="72">
@@ -3100,7 +3121,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -3119,7 +3140,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -3164,7 +3185,7 @@
       </c>
       <c r="AB19" s="7">
         <f>IF(AND(OR($O19=instellingen!$I$3,$O19=instellingen!$I$4),OR($M19=instellingen!$I$2,$M19=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="7">
         <f>IF(AND($O19=instellingen!$I$2,$M19=instellingen!$I$3),1,0)</f>
@@ -3180,7 +3201,7 @@
       </c>
       <c r="AF19" s="8">
         <f>SUM(R19:AE19)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1" ht="72">
@@ -3192,7 +3213,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -3207,7 +3228,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -3252,7 +3273,7 @@
       </c>
       <c r="AB20" s="7">
         <f>IF(AND(OR($O20=instellingen!$I$3,$O20=instellingen!$I$4),OR($M20=instellingen!$I$2,$M20=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="7">
         <f>IF(AND($O20=instellingen!$I$2,$M20=instellingen!$I$3),1,0)</f>
@@ -3268,7 +3289,7 @@
       </c>
       <c r="AF20" s="8">
         <f>SUM(R20:AE20)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1" ht="72">
@@ -3280,7 +3301,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I21" s="45">
         <v>2</v>
@@ -3299,7 +3320,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -3344,7 +3365,7 @@
       </c>
       <c r="AB21" s="7">
         <f>IF(AND(OR($O21=instellingen!$I$3,$O21=instellingen!$I$4),OR($M21=instellingen!$I$2,$M21=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="7">
         <f>IF(AND($O21=instellingen!$I$2,$M21=instellingen!$I$3),1,0)</f>
@@ -3360,7 +3381,7 @@
       </c>
       <c r="AF21" s="8">
         <f>SUM(R21:AE21)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1" ht="72">
@@ -3372,7 +3393,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I22" s="45">
         <v>2</v>
@@ -3381,7 +3402,7 @@
         <v>19</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L22" s="45">
         <v>100</v>
@@ -3396,7 +3417,7 @@
         <v>11</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -3468,7 +3489,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I23" s="45">
         <v>2</v>
@@ -3492,7 +3513,7 @@
         <v>11</v>
       </c>
       <c r="P23" s="32" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
@@ -3727,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -3744,10 +3765,10 @@
         <v>20</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -3819,14 +3840,14 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
         <v>19</v>
       </c>
       <c r="K31" s="30" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L31" s="45">
         <v>100</v>
@@ -3841,7 +3862,7 @@
         <v>11</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -3913,7 +3934,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -3933,7 +3954,7 @@
         <v>11</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -4005,7 +4026,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="I33" s="45"/>
       <c r="J33" s="29" t="s">
@@ -4027,7 +4048,7 @@
         <v>11</v>
       </c>
       <c r="P33" s="32" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="R33" s="7">
         <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>
@@ -4099,7 +4120,7 @@
         <v>3</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="I34" s="45"/>
       <c r="J34" s="29" t="s">
@@ -4118,10 +4139,10 @@
         <v>10</v>
       </c>
       <c r="O34" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P34" s="32" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="R34" s="7">
         <f>IF(OR(AND($G34&lt;&gt;instellingen!$G$2,ISBLANK($H34)),AND($G34=instellingen!$G$2,$H34&lt;&gt;"")),1,0)</f>
@@ -4640,7 +4661,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -4994,7 +5015,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602222222</v>
+        <v>44385.633275463</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6021,7 +6042,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -6040,10 +6061,10 @@
         <v>10</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -6115,14 +6136,14 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
         <v>19</v>
       </c>
       <c r="K31" s="30" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L31" s="45">
         <v>100</v>
@@ -6137,7 +6158,7 @@
         <v>11</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -6209,7 +6230,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -6226,10 +6247,10 @@
         <v>20</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -6301,7 +6322,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="I33" s="45"/>
       <c r="J33" s="29" t="s">
@@ -6323,7 +6344,7 @@
         <v>11</v>
       </c>
       <c r="P33" s="32" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="R33" s="7">
         <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>
@@ -6395,7 +6416,7 @@
         <v>3</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="I34" s="45"/>
       <c r="J34" s="29" t="s">
@@ -6417,7 +6438,7 @@
         <v>11</v>
       </c>
       <c r="P34" s="32" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="R34" s="7">
         <f>IF(OR(AND($G34&lt;&gt;instellingen!$G$2,ISBLANK($H34)),AND($G34=instellingen!$G$2,$H34&lt;&gt;"")),1,0)</f>
@@ -6965,7 +6986,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -7465,7 +7486,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602222222</v>
+        <v>44385.633275463</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7856,7 +7877,7 @@
         <v>1</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
         <v>74</v>
@@ -7948,7 +7969,7 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
         <v>76</v>
@@ -8132,7 +8153,7 @@
         <v>2</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P21" s="32" t="s">
         <v>80</v>
@@ -8312,7 +8333,7 @@
       </c>
       <c r="N23" s="46"/>
       <c r="O23" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P23" s="32" t="s">
         <v>84</v>
@@ -8359,7 +8380,7 @@
       </c>
       <c r="AB23" s="7">
         <f>IF(AND(OR($O23=instellingen!$I$3,$O23=instellingen!$I$4),OR($M23=instellingen!$I$2,$M23=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="7">
         <f>IF(AND($O23=instellingen!$I$2,$M23=instellingen!$I$3),1,0)</f>
@@ -8375,7 +8396,7 @@
       </c>
       <c r="AF23" s="8">
         <f>SUM(R23:AE23)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:32">
@@ -9259,7 +9280,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -9759,7 +9780,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602222222</v>
+        <v>44385.633275463</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10150,7 +10171,7 @@
         <v>1</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
         <v>74</v>
@@ -10242,7 +10263,7 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
         <v>76</v>
@@ -10426,7 +10447,7 @@
         <v>2</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P21" s="32" t="s">
         <v>80</v>
@@ -10606,7 +10627,7 @@
       </c>
       <c r="N23" s="46"/>
       <c r="O23" s="31" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="P23" s="32" t="s">
         <v>84</v>
@@ -10653,7 +10674,7 @@
       </c>
       <c r="AB23" s="7">
         <f>IF(AND(OR($O23=instellingen!$I$3,$O23=instellingen!$I$4),OR($M23=instellingen!$I$2,$M23=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="7">
         <f>IF(AND($O23=instellingen!$I$2,$M23=instellingen!$I$3),1,0)</f>
@@ -10669,7 +10690,7 @@
       </c>
       <c r="AF23" s="8">
         <f>SUM(R23:AE23)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:32">
@@ -11699,7 +11720,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2">
         <v>568</v>
@@ -11709,7 +11730,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -11718,7 +11739,7 @@
         <v>19</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L6" s="45">
         <v>100</v>
@@ -11733,7 +11754,7 @@
         <v>11</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -11811,7 +11832,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -11820,13 +11841,15 @@
         <v>7</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="45"/>
+      <c r="L7" s="45">
+        <v>50</v>
+      </c>
       <c r="M7" s="27" t="s">
         <v>11</v>
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11847,7 +11870,7 @@
       </c>
       <c r="V7" s="7">
         <f>IF(OR(AND($L7&lt;&gt;"",OR($J7=instellingen!$H$5,$J7=instellingen!$H$6,,$J7=instellingen!$H$7)),AND(ISBLANK($L7),OR($J7=instellingen!$H$3,$J7=instellingen!$H$4,))),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" s="7">
         <f>IF(ISBLANK($M7),1,0)</f>
@@ -11871,7 +11894,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -11887,7 +11910,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -11902,10 +11925,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -11915,20 +11938,16 @@
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="45">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="M8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="46">
-        <v>15</v>
-      </c>
+      <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32" t="s">
-        <v>91</v>
-      </c>
+      <c r="P8" s="32"/>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -11963,7 +11982,7 @@
       </c>
       <c r="Z8" s="7">
         <f>IF(AND(ISBLANK($N8),$M8=instellingen!$I$3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="7">
         <f>IF(ISBLANK($O8),1,0)</f>
@@ -11983,11 +12002,11 @@
       </c>
       <c r="AE8" s="7">
         <f>IF(AND(ISBLANK($P8),$M8=instellingen!$I$3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -12016,16 +12035,20 @@
       </c>
       <c r="K9" s="30"/>
       <c r="L9" s="45">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M9" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="46"/>
+      <c r="N9" s="46">
+        <v>15</v>
+      </c>
       <c r="O9" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="32"/>
+        <v>5</v>
+      </c>
+      <c r="P9" s="32" t="s">
+        <v>93</v>
+      </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -12056,7 +12079,7 @@
       </c>
       <c r="Y9" s="7">
         <f>IF(AND($N9&lt;&gt;"",OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9" s="7">
         <f>IF(AND(ISBLANK($N9),$M9=instellingen!$I$3),1,0)</f>
@@ -12068,7 +12091,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -12076,7 +12099,7 @@
       </c>
       <c r="AD9" s="7">
         <f>IF(AND($P9&lt;&gt;"",OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9" s="7">
         <f>IF(AND(ISBLANK($P9),$M9=instellingen!$I$3),1,0)</f>
@@ -12084,7 +12107,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -12093,7 +12116,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602222222</v>
+        <v>44385.633275463</v>
       </c>
       <c r="D10" s="2">
         <v>572</v>
@@ -12103,7 +12126,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -12120,7 +12143,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -12165,7 +12188,7 @@
       </c>
       <c r="AB10" s="7">
         <f>IF(AND(OR($O10=instellingen!$I$3,$O10=instellingen!$I$4),OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7">
         <f>IF(AND($O10=instellingen!$I$2,$M10=instellingen!$I$3),1,0)</f>
@@ -12181,7 +12204,7 @@
       </c>
       <c r="AF10" s="8">
         <f>SUM(R10:AE10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
@@ -12200,7 +12223,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -12209,7 +12232,7 @@
         <v>19</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L11" s="45">
         <v>100</v>
@@ -12224,7 +12247,7 @@
         <v>11</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
@@ -13851,7 +13874,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -13997,7 +14020,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2">
         <v>7</v>
@@ -14007,7 +14030,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -14016,7 +14039,7 @@
         <v>19</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L6" s="45">
         <v>100</v>
@@ -14031,7 +14054,7 @@
         <v>11</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -14109,7 +14132,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -14124,7 +14147,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -14169,7 +14192,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -14185,7 +14208,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -14203,7 +14226,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -14225,7 +14248,7 @@
         <v>11</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -14304,7 +14327,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -14321,7 +14344,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -14366,7 +14389,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -14382,7 +14405,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -14391,7 +14414,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602222222</v>
+        <v>44385.633275463</v>
       </c>
       <c r="D10" s="2">
         <v>11</v>
@@ -14401,7 +14424,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -14418,7 +14441,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -14463,7 +14486,7 @@
       </c>
       <c r="AB10" s="7">
         <f>IF(AND(OR($O10=instellingen!$I$3,$O10=instellingen!$I$4),OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7">
         <f>IF(AND($O10=instellingen!$I$2,$M10=instellingen!$I$3),1,0)</f>
@@ -14479,7 +14502,7 @@
       </c>
       <c r="AF10" s="8">
         <f>SUM(R10:AE10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
@@ -14498,7 +14521,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -14507,7 +14530,7 @@
         <v>19</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L11" s="45">
         <v>100</v>
@@ -14522,7 +14545,7 @@
         <v>11</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
@@ -14785,7 +14808,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -14802,10 +14825,10 @@
         <v>20</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -14877,7 +14900,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -14896,10 +14919,10 @@
         <v>15</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -14971,14 +14994,14 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
         <v>19</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L20" s="45">
         <v>100</v>
@@ -14993,7 +15016,7 @@
         <v>11</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -15065,7 +15088,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
@@ -15087,7 +15110,7 @@
         <v>11</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -16341,7 +16364,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16695,7 +16718,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602222222</v>
+        <v>44385.633275463</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -17067,7 +17090,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -17086,10 +17109,10 @@
         <v>15</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -17161,7 +17184,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -17178,10 +17201,10 @@
         <v>20</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -17253,14 +17276,14 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
         <v>19</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L20" s="45">
         <v>100</v>
@@ -17275,7 +17298,7 @@
         <v>11</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -17347,7 +17370,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
@@ -17369,7 +17392,7 @@
         <v>11</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -18477,7 +18500,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -18623,7 +18646,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D6" s="2">
         <v>585</v>
@@ -18633,7 +18656,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -18650,7 +18673,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -18695,7 +18718,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -18711,7 +18734,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -18729,7 +18752,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -18748,7 +18771,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -18793,7 +18816,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -18809,7 +18832,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -18827,7 +18850,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -18844,7 +18867,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -18889,7 +18912,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -18905,7 +18928,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -18924,7 +18947,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -18941,7 +18964,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -18986,7 +19009,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -19002,7 +19025,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -19011,7 +19034,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602222222</v>
+        <v>44385.633275463</v>
       </c>
       <c r="D10" s="2">
         <v>589</v>
@@ -19021,7 +19044,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -19038,7 +19061,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -19083,7 +19106,7 @@
       </c>
       <c r="AB10" s="7">
         <f>IF(AND(OR($O10=instellingen!$I$3,$O10=instellingen!$I$4),OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7">
         <f>IF(AND($O10=instellingen!$I$2,$M10=instellingen!$I$3),1,0)</f>
@@ -19099,7 +19122,7 @@
       </c>
       <c r="AF10" s="8">
         <f>SUM(R10:AE10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
@@ -19118,7 +19141,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -19127,7 +19150,7 @@
         <v>19</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L11" s="45">
         <v>100</v>
@@ -19142,7 +19165,7 @@
         <v>11</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
@@ -20771,7 +20794,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -20917,7 +20940,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D6" s="2">
         <v>17</v>
@@ -20927,7 +20950,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -20944,7 +20967,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -20989,7 +21012,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -21005,7 +21028,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -21023,7 +21046,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -21042,7 +21065,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -21087,7 +21110,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -21103,7 +21126,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -21121,7 +21144,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -21138,7 +21161,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -21183,7 +21206,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -21199,7 +21222,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -21218,7 +21241,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -21235,7 +21258,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -21280,7 +21303,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -21296,7 +21319,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -21305,7 +21328,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602222222</v>
+        <v>44385.633275463</v>
       </c>
       <c r="D10" s="2">
         <v>21</v>
@@ -21315,7 +21338,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -21332,7 +21355,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -21377,7 +21400,7 @@
       </c>
       <c r="AB10" s="7">
         <f>IF(AND(OR($O10=instellingen!$I$3,$O10=instellingen!$I$4),OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7">
         <f>IF(AND($O10=instellingen!$I$2,$M10=instellingen!$I$3),1,0)</f>
@@ -21393,7 +21416,7 @@
       </c>
       <c r="AF10" s="8">
         <f>SUM(R10:AE10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
@@ -21412,7 +21435,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -21421,7 +21444,7 @@
         <v>19</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L11" s="45">
         <v>100</v>
@@ -21436,7 +21459,7 @@
         <v>11</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
@@ -21699,7 +21722,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -21716,7 +21739,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -21761,7 +21784,7 @@
       </c>
       <c r="AB18" s="7">
         <f>IF(AND(OR($O18=instellingen!$I$3,$O18=instellingen!$I$4),OR($M18=instellingen!$I$2,$M18=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="7">
         <f>IF(AND($O18=instellingen!$I$2,$M18=instellingen!$I$3),1,0)</f>
@@ -21777,7 +21800,7 @@
       </c>
       <c r="AF18" s="8">
         <f>SUM(R18:AE18)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1" ht="72">
@@ -21789,7 +21812,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -21808,7 +21831,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -21853,7 +21876,7 @@
       </c>
       <c r="AB19" s="7">
         <f>IF(AND(OR($O19=instellingen!$I$3,$O19=instellingen!$I$4),OR($M19=instellingen!$I$2,$M19=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="7">
         <f>IF(AND($O19=instellingen!$I$2,$M19=instellingen!$I$3),1,0)</f>
@@ -21869,7 +21892,7 @@
       </c>
       <c r="AF19" s="8">
         <f>SUM(R19:AE19)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1" ht="72">
@@ -21878,10 +21901,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -21896,7 +21919,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -21941,7 +21964,7 @@
       </c>
       <c r="AB20" s="7">
         <f>IF(AND(OR($O20=instellingen!$I$3,$O20=instellingen!$I$4),OR($M20=instellingen!$I$2,$M20=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="7">
         <f>IF(AND($O20=instellingen!$I$2,$M20=instellingen!$I$3),1,0)</f>
@@ -21957,7 +21980,7 @@
       </c>
       <c r="AF20" s="8">
         <f>SUM(R20:AE20)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1" ht="72">
@@ -21969,7 +21992,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I21" s="45">
         <v>2</v>
@@ -21988,7 +22011,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -22033,7 +22056,7 @@
       </c>
       <c r="AB21" s="7">
         <f>IF(AND(OR($O21=instellingen!$I$3,$O21=instellingen!$I$4),OR($M21=instellingen!$I$2,$M21=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="7">
         <f>IF(AND($O21=instellingen!$I$2,$M21=instellingen!$I$3),1,0)</f>
@@ -22049,7 +22072,7 @@
       </c>
       <c r="AF21" s="8">
         <f>SUM(R21:AE21)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1" ht="72">
@@ -22061,7 +22084,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I22" s="45">
         <v>2</v>
@@ -22070,7 +22093,7 @@
         <v>19</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L22" s="45">
         <v>100</v>
@@ -22085,7 +22108,7 @@
         <v>11</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -22157,7 +22180,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I23" s="45">
         <v>2</v>
@@ -22181,7 +22204,7 @@
         <v>11</v>
       </c>
       <c r="P23" s="32" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>

--- a/public/cohort/fileExcel/xlsxUIT/OPEN/NE_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/NE_OPEN.xlsx
@@ -950,10 +950,10 @@
     <t>Fictiedossier</t>
   </si>
   <si>
-    <t>NE/K/7, NE/K/8, NE/V/1, NE/V/2, NE/V/3</t>
+    <t>kies...</t>
   </si>
   <si>
-    <t>kies...</t>
+    <t>NE/K/7, NE/K/8, NE/V/1, NE/V/2, NE/V/3</t>
   </si>
   <si>
     <t>H</t>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633275463</v>
+        <v>44387.766006944</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -3140,7 +3140,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -3320,7 +3320,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633275463</v>
+        <v>44387.766006944</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7486,7 +7486,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633275463</v>
+        <v>44387.766006944</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8333,10 +8333,10 @@
       </c>
       <c r="N23" s="46"/>
       <c r="O23" s="31" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="P23" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633275463</v>
+        <v>44387.766006944</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10627,10 +10627,10 @@
       </c>
       <c r="N23" s="46"/>
       <c r="O23" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="P23" s="32" t="s">
         <v>85</v>
-      </c>
-      <c r="P23" s="32" t="s">
-        <v>84</v>
       </c>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
@@ -11849,7 +11849,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -12044,7 +12044,7 @@
         <v>15</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="P9" s="32" t="s">
         <v>93</v>
@@ -12116,7 +12116,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633275463</v>
+        <v>44387.766006944</v>
       </c>
       <c r="D10" s="2">
         <v>572</v>
@@ -12143,7 +12143,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -14147,7 +14147,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -14414,7 +14414,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633275463</v>
+        <v>44387.766006944</v>
       </c>
       <c r="D10" s="2">
         <v>11</v>
@@ -14441,7 +14441,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -16718,7 +16718,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633275463</v>
+        <v>44387.766006944</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -18673,7 +18673,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -18771,7 +18771,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -18867,7 +18867,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -18964,7 +18964,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -19034,7 +19034,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633275463</v>
+        <v>44387.766006944</v>
       </c>
       <c r="D10" s="2">
         <v>589</v>
@@ -19061,7 +19061,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -20967,7 +20967,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -21065,7 +21065,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -21161,7 +21161,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -21258,7 +21258,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -21328,7 +21328,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633275463</v>
+        <v>44387.766006944</v>
       </c>
       <c r="D10" s="2">
         <v>21</v>
@@ -21355,7 +21355,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -21739,7 +21739,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -21831,7 +21831,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -21919,7 +21919,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -22011,7 +22011,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
